--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -1898,7 +1898,7 @@
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3590,27 +3590,27 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Interest details</t>
+          <t>Interest in land</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>interest-details</t>
+          <t>interest-in-land</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>applicant-owns-land</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Applicant owns land</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3621,12 +3621,12 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>True or False indicating whether the applicant owns the land where the advertisement will be displayed</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3640,49 +3640,33 @@
       <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>permission-obtained</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Permission obtained</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>True or False indicating whether permission of the owner for the display of an advertisement has been obtained</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3696,44 +3680,28 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>permission-not-obtained-details</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>first-name</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
+          <t>Permission not obtained details</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>Details explaining why permission from the land owner has not been obtained for the advertisement display</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3743,53 +3711,45 @@
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>last-name</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3808,49 +3768,33 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Declaration confirmed</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3864,44 +3808,28 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Declaration date</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3911,45 +3839,45 @@
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>owner-details</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Owner details[]</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>informed-of-application</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>Informed of application</t>
-        </is>
-      </c>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Whether the owner has been informed of the application</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3968,44 +3896,28 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Officer name</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -4024,44 +3936,28 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>first-name</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4071,7 +3967,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4080,44 +3976,28 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>last-name</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
+          <t>Advice date</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4127,7 +4007,7 @@
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4136,44 +4016,28 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Advice summary</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4183,58 +4047,58 @@
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Proposed advert details</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>proposed-advert-details</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
+          <t>Advertisements[]</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>height-from-ground</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Height from ground</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Height, in metres, from ground to the base of the advertisement</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4248,27 +4112,27 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
+          <t>Advertisements[]</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>nature-of-interest</t>
+          <t>height</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Nature of interest</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4277,17 +4141,17 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Description of the nature of a person's interest in the property</t>
+          <t>Height, in metres, of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4296,27 +4160,27 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
+          <t>Advertisements[]</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>informed-of-application</t>
+          <t>width</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Informed of application</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4325,17 +4189,17 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Whether the person has been informed of the application</t>
+          <t>Width of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4344,27 +4208,27 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>interested-persons</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Interested persons[]</t>
+          <t>Advertisements[]</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>reason-not-informed</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Reason not informed</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4373,12 +4237,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Reason why a person was not informed of the application</t>
+          <t>Depth, in metres, of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4392,38 +4256,46 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>applicant-owns-land</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Applicant owns land</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>symbol-height-max</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>Symbol height max</t>
+        </is>
+      </c>
       <c r="H76" s="2" t="inlineStr"/>
       <c r="I76" s="2" t="inlineStr"/>
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the applicant owns the land where the advertisement will be displayed</t>
+          <t>Maximum height, in metres, of any individual letters or symbols</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4432,33 +4304,41 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>permission-obtained</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Permission obtained</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>colour</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
       <c r="H77" s="2" t="inlineStr"/>
       <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether permission of the owner for the display of an advertisement has been obtained</t>
+          <t>Colour of proposed sign</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4472,28 +4352,36 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Names and contact details for all parties with an interest in the proposed develpoment.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>permission-not-obtained-details</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Permission not obtained details</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
       <c r="H78" s="2" t="inlineStr"/>
       <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Details explaining why permission from the land owner has not been obtained for the advertisement display</t>
+          <t>Materials of proposed sign</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4508,50 +4396,50 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>max-projection</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Max projection</t>
+        </is>
+      </c>
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Maximum projection, in metres, of the advertisement from the face of the building</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4560,28 +4448,36 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>illuminated</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Illuminated</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>Will the sign(s) be illuminated?</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4591,7 +4487,7 @@
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4600,28 +4496,36 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>illumination-method</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Illumination method</t>
+        </is>
+      </c>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Method of illumination for the advertisement</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4631,55 +4535,55 @@
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>illuminance-level</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Illuminance level</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Level of illuminance for the advertisement</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4688,33 +4592,41 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>illumination-type</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Illumination type</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Type of illumination (static or intermittent)</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4724,37 +4636,53 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4768,28 +4696,36 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr"/>
-      <c r="G85" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>address-text</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4808,28 +4744,36 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr"/>
-      <c r="G86" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4844,39 +4788,31 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Proposed advert details</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>proposed-advert-details</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>height-from-ground</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Height from ground</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr"/>
@@ -4885,7 +4821,7 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Height, in metres, from ground to the base of the advertisement</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4904,27 +4840,27 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr"/>
@@ -4933,7 +4869,7 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Height, in metres, of dimensions of advertisement</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
@@ -4952,27 +4888,27 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Width</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -4981,7 +4917,7 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Width of dimensions of advertisement</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
@@ -5000,27 +4936,27 @@
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>depth</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -5029,7 +4965,7 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Depth, in metres, of dimensions of advertisement</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
@@ -5048,27 +4984,27 @@
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>symbol-height-max</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Symbol height max</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -5077,12 +5013,12 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Maximum height, in metres, of any individual letters or symbols</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
@@ -5096,27 +5032,27 @@
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>colour</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -5125,7 +5061,7 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Colour of proposed sign</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -5140,50 +5076,50 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Materials of proposed sign</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5192,46 +5128,38 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>max-projection</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Max projection</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Maximum projection, in metres, of the advertisement from the face of the building</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5240,41 +5168,33 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>illuminated</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Illuminated</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Will the sign(s) be illuminated?</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5288,27 +5208,27 @@
       <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>illumination-method</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Illumination method</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5317,7 +5237,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Method of illumination for the advertisement</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5327,7 +5247,7 @@
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5336,27 +5256,27 @@
       <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>illuminance-level</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Illuminance level</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5365,17 +5285,17 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Level of illuminance for the advertisement</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5384,27 +5304,27 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>illumination-type</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Illumination type</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -5413,727 +5333,15 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Type of illumination (static or intermittent)</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr"/>
-      <c r="I99" s="2" t="inlineStr"/>
-      <c r="J99" s="2" t="inlineStr"/>
-      <c r="K99" s="2" t="inlineStr"/>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
-        </is>
-      </c>
-      <c r="M99" s="2" t="inlineStr">
-        <is>
-          <t>wkt</t>
-        </is>
-      </c>
-      <c r="N99" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
-      <c r="H100" s="2" t="inlineStr"/>
-      <c r="I100" s="2" t="inlineStr"/>
-      <c r="J100" s="2" t="inlineStr"/>
-      <c r="K100" s="2" t="inlineStr"/>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Flexible field for capturing addresses</t>
-        </is>
-      </c>
-      <c r="M100" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N100" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
-      <c r="H101" s="2" t="inlineStr"/>
-      <c r="I101" s="2" t="inlineStr"/>
-      <c r="J101" s="2" t="inlineStr"/>
-      <c r="K101" s="2" t="inlineStr"/>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>The postal code</t>
-        </is>
-      </c>
-      <c r="M101" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N101" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n"/>
-      <c r="B102" s="2" t="n"/>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>easting</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="inlineStr">
-        <is>
-          <t>Easting</t>
-        </is>
-      </c>
-      <c r="H102" s="2" t="inlineStr"/>
-      <c r="I102" s="2" t="inlineStr"/>
-      <c r="J102" s="2" t="inlineStr"/>
-      <c r="K102" s="2" t="inlineStr"/>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
-        </is>
-      </c>
-      <c r="M102" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N102" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>northing</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>Northing</t>
-        </is>
-      </c>
-      <c r="H103" s="2" t="inlineStr"/>
-      <c r="I103" s="2" t="inlineStr"/>
-      <c r="J103" s="2" t="inlineStr"/>
-      <c r="K103" s="2" t="inlineStr"/>
-      <c r="L103" s="2" t="inlineStr">
-        <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
-        </is>
-      </c>
-      <c r="M103" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N103" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr"/>
-      <c r="I104" s="2" t="inlineStr"/>
-      <c r="J104" s="2" t="inlineStr"/>
-      <c r="K104" s="2" t="inlineStr"/>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
-        </is>
-      </c>
-      <c r="M104" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N104" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
-      <c r="H105" s="2" t="inlineStr"/>
-      <c r="I105" s="2" t="inlineStr"/>
-      <c r="J105" s="2" t="inlineStr"/>
-      <c r="K105" s="2" t="inlineStr"/>
-      <c r="L105" s="2" t="inlineStr">
-        <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
-        </is>
-      </c>
-      <c r="M105" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N105" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n"/>
-      <c r="B106" s="2" t="n"/>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H106" s="2" t="inlineStr"/>
-      <c r="I106" s="2" t="inlineStr"/>
-      <c r="J106" s="2" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr"/>
-      <c r="L106" s="2" t="inlineStr">
-        <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
-        </is>
-      </c>
-      <c r="M106" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N106" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
-      <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
-        </is>
-      </c>
-      <c r="M107" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N107" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>can-be-seen-from</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
-      <c r="H108" s="2" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr"/>
-      <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
-      <c r="L108" s="2" t="inlineStr">
-        <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
-        </is>
-      </c>
-      <c r="M108" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="N108" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>contact-type</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr"/>
-      <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
-      <c r="L109" s="2" t="inlineStr">
-        <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
-        </is>
-      </c>
-      <c r="M109" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N109" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>contact-reference</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr"/>
-      <c r="H110" s="2" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr"/>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
-      <c r="L110" s="2" t="inlineStr">
-        <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
-        </is>
-      </c>
-      <c r="M110" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N110" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr">
-        <is>
-          <t>The complete name of a person</t>
-        </is>
-      </c>
-      <c r="M111" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N111" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr"/>
-      <c r="J112" s="2" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr"/>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>A phone number</t>
-        </is>
-      </c>
-      <c r="M112" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N112" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr"/>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
-      <c r="L113" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M113" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N113" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6142,39 +5350,39 @@
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A99:A107"/>
     <mergeCell ref="B55"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B84:B92"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A64:A66"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B79:B81"/>
     <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="B72:B83"/>
     <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A67:A71"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B37:B44"/>
-    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B67:B71"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A55"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B61:B78"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B49:B54"/>
     <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A84:A92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,99 +1505,83 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Advertisement location</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>advert-location</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Where the advertisement being applied to be built will be located</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>is-advert-in-place</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Is advert in place</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Whether the advertisement is already in place</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Advertisement location</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>advert-location</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Where the advertisement being applied to be built will be located</t>
@@ -1613,12 +1589,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>is-advert-in-place</t>
+          <t>advert-placed-date</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Is advert in place</t>
+          <t>Advert placed date</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1629,17 +1605,17 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Whether the advertisement is already in place</t>
+          <t>Date when the advertisement was placed (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1629,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>advert-placed-date</t>
+          <t>is-replacement-advert</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Advert placed date</t>
+          <t>Is replacement advert</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
@@ -1669,17 +1645,17 @@
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Date when the advertisement was placed (YYYY-MM-DD format)</t>
+          <t>Whether this is a replacement advertisement</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1693,28 +1669,36 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>is-replacement-advert</t>
+          <t>document-reference</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Is replacement advert</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+          <t>Document reference[]</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Whether this is a replacement advertisement</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1743,12 +1727,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
@@ -1757,7 +1741,7 @@
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1781,36 +1765,28 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>document-reference</t>
+          <t>is-advert-overhanging</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Is advert overhanging</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether the advertisement will project over a footpath or other public highway</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -1820,21 +1796,29 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Advert period</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>advert-period</t>
+        </is>
+      </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Where the advertisement being applied to be built will be located</t>
+          <t>How long the proposed advertisement will be shown.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>is-advert-overhanging</t>
+          <t>advert-start-date</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Is advert overhanging</t>
+          <t>Advert start date</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
@@ -1845,12 +1829,12 @@
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>Whether the advertisement will project over a footpath or other public highway</t>
+          <t>The start of the time period that consent to advertisement is sought</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -1860,16 +1844,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Advert period</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>advert-period</t>
-        </is>
-      </c>
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
           <t>How long the proposed advertisement will be shown.</t>
@@ -1877,12 +1853,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>advert-start-date</t>
+          <t>advert-end-date</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Advert start date</t>
+          <t>Advert end date</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
@@ -1893,7 +1869,7 @@
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The start of the time period that consent to advertisement is sought</t>
+          <t>The end of the time period that consent to advertisement is sought</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1908,21 +1884,29 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Advertisement types</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>advertisement-types</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>How long the proposed advertisement will be shown.</t>
+          <t>What type of advertisements are proposed and how many there will be.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>advert-end-date</t>
+          <t>advertisement-proposal-description</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Advert end date</t>
+          <t>Advertisement proposal description</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
@@ -1933,12 +1917,12 @@
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The end of the time period that consent to advertisement is sought</t>
+          <t>Description of the advertisement proposal</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -1948,16 +1932,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Advertisement types</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>advertisement-types</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>What type of advertisements are proposed and how many there will be.</t>
@@ -1965,28 +1941,36 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>advertisement-proposal-description</t>
+          <t>advertisement-proposal-type</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Advertisement proposal description</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
+          <t>Advertisement proposal type[]</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>advertisement-type</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Advertisement type</t>
+        </is>
+      </c>
       <c r="H29" s="2" t="inlineStr"/>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Description of the advertisement proposal</t>
+          <t>One of the advertisement-types or other</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -2015,12 +1999,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>advertisement-type</t>
+          <t>advertisement-count</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Advertisement type</t>
+          <t>Advertisement count</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2029,12 +2013,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>One of the advertisement-types or other</t>
+          <t>Number of this type of advertisement</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2063,12 +2047,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>advertisement-count</t>
+          <t>advertisement-other-description</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Advertisement count</t>
+          <t>Advertisement other description</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2077,55 +2061,55 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Number of this type of advertisement</t>
+          <t>Details required if other advertisement type is selected</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>What type of advertisements are proposed and how many there will be.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>advertisement-proposal-type</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Advertisement proposal type[]</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>advertisement-other-description</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Advertisement other description</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Details required if other advertisement type is selected</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2135,21 +2119,13 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2157,23 +2133,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2207,21 +2191,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2231,7 +2223,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2265,24 +2257,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2292,8 +2284,16 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2301,63 +2301,47 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2375,21 +2359,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2399,7 +2391,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2433,19 +2425,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2455,7 +2447,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2489,19 +2481,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2545,19 +2537,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2601,19 +2593,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2623,7 +2615,7 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2647,29 +2639,21 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2703,12 +2687,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -2717,12 +2701,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2732,64 +2716,56 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2797,23 +2773,31 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2847,21 +2831,29 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2871,7 +2863,7 @@
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2905,24 +2897,24 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2932,72 +2924,64 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -3015,21 +2999,29 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3039,7 +3031,7 @@
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3073,19 +3065,19 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3095,7 +3087,7 @@
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3129,19 +3121,19 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3185,19 +3177,19 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3241,19 +3233,19 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3263,53 +3255,45 @@
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3319,34 +3303,34 @@
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>community-consultation</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>have-consulted</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3357,12 +3341,12 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3372,16 +3356,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>community-consultation</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>What community consultation activities have taken place as part of the application</t>
@@ -3389,12 +3365,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>have-consulted</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3405,36 +3381,44 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3445,31 +3429,23 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3477,12 +3453,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3493,17 +3469,17 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3493,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3533,7 +3509,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3548,21 +3524,29 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Interest in land</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>interest-in-land</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>applicant-owns-land</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Applicant owns land</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3573,31 +3557,23 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>True or False indicating whether the applicant owns the land where the advertisement will be displayed</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Interest in land</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>interest-in-land</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
@@ -3605,12 +3581,12 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>applicant-owns-land</t>
+          <t>permission-obtained</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Applicant owns land</t>
+          <t>Permission obtained</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3621,7 +3597,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the applicant owns the land where the advertisement will be displayed</t>
+          <t>True or False indicating whether permission of the owner for the display of an advertisement has been obtained</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3631,7 +3607,7 @@
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3645,12 +3621,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>permission-obtained</t>
+          <t>permission-not-obtained-details</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Permission obtained</t>
+          <t>Permission not obtained details</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3661,12 +3637,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether permission of the owner for the display of an advertisement has been obtained</t>
+          <t>Details explaining why permission from the land owner has not been obtained for the advertisement display</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3676,21 +3652,29 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>permission-not-obtained-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Permission not obtained details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3701,7 +3685,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Details explaining why permission from the land owner has not been obtained for the advertisement display</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3711,21 +3695,13 @@
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3733,12 +3709,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3749,12 +3725,12 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3773,12 +3749,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3789,12 +3765,12 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3804,21 +3780,29 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3829,12 +3813,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3844,16 +3828,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3861,12 +3837,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3877,17 +3853,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3877,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3917,7 +3893,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3941,12 +3917,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -3957,7 +3933,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3981,12 +3957,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -3997,7 +3973,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4012,37 +3988,53 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Proposed advert details</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>proposed-advert-details</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>height-from-ground</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Height from ground</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Height, in metres, from ground to the base of the advertisement</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4052,16 +4044,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Proposed advert details</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>proposed-advert-details</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Details of the proposed advertisements such as their size and how they are made</t>
@@ -4079,12 +4063,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>height-from-ground</t>
+          <t>height</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Height from ground</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4093,7 +4077,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Height, in metres, from ground to the base of the advertisement</t>
+          <t>Height, in metres, of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4127,12 +4111,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>width</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4141,7 +4125,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Height, in metres, of dimensions of advertisement</t>
+          <t>Width of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4175,12 +4159,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Width</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4189,7 +4173,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Width of dimensions of advertisement</t>
+          <t>Depth, in metres, of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4223,12 +4207,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>depth</t>
+          <t>symbol-height-max</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>Symbol height max</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4237,7 +4221,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Depth, in metres, of dimensions of advertisement</t>
+          <t>Maximum height, in metres, of any individual letters or symbols</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4271,12 +4255,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>symbol-height-max</t>
+          <t>colour</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Symbol height max</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4285,12 +4269,12 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Maximum height, in metres, of any individual letters or symbols</t>
+          <t>Colour of proposed sign</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4319,12 +4303,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>colour</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4333,7 +4317,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Colour of proposed sign</t>
+          <t>Materials of proposed sign</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4367,12 +4351,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>max-projection</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Max projection</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4381,12 +4365,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Materials of proposed sign</t>
+          <t>Maximum projection, in metres, of the advertisement from the face of the building</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4415,12 +4399,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>max-projection</t>
+          <t>illuminated</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Max projection</t>
+          <t>Illuminated</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -4429,12 +4413,12 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Maximum projection, in metres, of the advertisement from the face of the building</t>
+          <t>Will the sign(s) be illuminated?</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
@@ -4463,12 +4447,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>illuminated</t>
+          <t>illumination-method</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Illuminated</t>
+          <t>Illumination method</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
@@ -4477,12 +4461,12 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Will the sign(s) be illuminated?</t>
+          <t>Method of illumination for the advertisement</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
@@ -4511,12 +4495,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>illumination-method</t>
+          <t>illuminance-level</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Illumination method</t>
+          <t>Illuminance level</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -4525,12 +4509,12 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Method of illumination for the advertisement</t>
+          <t>Level of illuminance for the advertisement</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4559,12 +4543,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>illuminance-level</t>
+          <t>illumination-type</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Illuminance level</t>
+          <t>Illumination type</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -4573,12 +4557,12 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Level of illuminance for the advertisement</t>
+          <t>Type of illumination (static or intermittent)</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4588,31 +4572,39 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>illumination-type</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Illumination type</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -4621,12 +4613,12 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Type of illumination (static or intermittent)</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4636,16 +4628,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4663,12 +4647,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4677,12 +4661,12 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4711,12 +4695,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4725,7 +4709,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4759,12 +4743,12 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -4773,12 +4757,12 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4807,12 +4791,12 @@
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr"/>
@@ -4821,7 +4805,7 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4855,12 +4839,12 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr"/>
@@ -4869,7 +4853,7 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
@@ -4903,12 +4887,12 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -4917,7 +4901,7 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
@@ -4951,12 +4935,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -4965,12 +4949,12 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
@@ -4999,12 +4983,12 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -5013,7 +4997,7 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
@@ -5028,64 +5012,56 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr"/>
       <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5093,12 +5069,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5109,12 +5085,12 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
@@ -5133,12 +5109,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -5149,17 +5125,17 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5173,23 +5149,31 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5199,7 +5183,7 @@
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5223,12 +5207,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5237,7 +5221,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5271,12 +5255,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5285,7 +5269,7 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
@@ -5294,54 +5278,6 @@
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
-      <c r="J98" s="2" t="inlineStr"/>
-      <c r="K98" s="2" t="inlineStr"/>
-      <c r="L98" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M98" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N98" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -5349,40 +5285,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B55"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B72:B83"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A72:A83"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B54"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A71:A82"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,99 +1441,83 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Advertisement location</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>advert-location</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Where the advertisement being applied to be built will be located</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>is-advert-in-place</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Is advert in place</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Whether the advertisement is already in place</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Advertisement location</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>advert-location</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Where the advertisement being applied to be built will be located</t>
@@ -1549,12 +1525,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>is-advert-in-place</t>
+          <t>advert-placed-date</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Is advert in place</t>
+          <t>Advert placed date</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1565,17 +1541,17 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Whether the advertisement is already in place</t>
+          <t>Date when the advertisement was placed (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1565,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>advert-placed-date</t>
+          <t>is-replacement-advert</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Advert placed date</t>
+          <t>Is replacement advert</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1605,17 +1581,17 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Date when the advertisement was placed (YYYY-MM-DD format)</t>
+          <t>Whether this is a replacement advertisement</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1629,28 +1605,36 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>is-replacement-advert</t>
+          <t>document-reference</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Is replacement advert</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+          <t>Document reference[]</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Whether this is a replacement advertisement</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1679,12 +1663,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1693,7 +1677,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1717,36 +1701,28 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>document-reference</t>
+          <t>is-advert-overhanging</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Is advert overhanging</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether the advertisement will project over a footpath or other public highway</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -1756,21 +1732,29 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Advert period</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>advert-period</t>
+        </is>
+      </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Where the advertisement being applied to be built will be located</t>
+          <t>How long the proposed advertisement will be shown.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>is-advert-overhanging</t>
+          <t>advert-start-date</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Is advert overhanging</t>
+          <t>Advert start date</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
@@ -1781,12 +1765,12 @@
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>Whether the advertisement will project over a footpath or other public highway</t>
+          <t>The start of the time period that consent to advertisement is sought</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -1796,16 +1780,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Advert period</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>advert-period</t>
-        </is>
-      </c>
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
       <c r="C26" s="2" t="inlineStr">
         <is>
           <t>How long the proposed advertisement will be shown.</t>
@@ -1813,12 +1789,12 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>advert-start-date</t>
+          <t>advert-end-date</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Advert start date</t>
+          <t>Advert end date</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
@@ -1829,7 +1805,7 @@
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The start of the time period that consent to advertisement is sought</t>
+          <t>The end of the time period that consent to advertisement is sought</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1844,21 +1820,29 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Advertisement types</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>advertisement-types</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>How long the proposed advertisement will be shown.</t>
+          <t>What type of advertisements are proposed and how many there will be.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>advert-end-date</t>
+          <t>advertisement-proposal-description</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Advert end date</t>
+          <t>Advertisement proposal description</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
@@ -1869,12 +1853,12 @@
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The end of the time period that consent to advertisement is sought</t>
+          <t>Description of the advertisement proposal</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -1884,16 +1868,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Advertisement types</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>advertisement-types</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>What type of advertisements are proposed and how many there will be.</t>
@@ -1901,28 +1877,36 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>advertisement-proposal-description</t>
+          <t>advertisement-proposal-type</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Advertisement proposal description</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
+          <t>Advertisement proposal type[]</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>advertisement-type</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Advertisement type</t>
+        </is>
+      </c>
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Description of the advertisement proposal</t>
+          <t>One of the advertisement-types or other</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -1951,12 +1935,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>advertisement-type</t>
+          <t>advertisement-count</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Advertisement type</t>
+          <t>Advertisement count</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr"/>
@@ -1965,12 +1949,12 @@
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>One of the advertisement-types or other</t>
+          <t>Number of this type of advertisement</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -1999,12 +1983,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>advertisement-count</t>
+          <t>advertisement-other-description</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Advertisement count</t>
+          <t>Advertisement other description</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2013,55 +1997,55 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>Number of this type of advertisement</t>
+          <t>Details required if other advertisement type is selected</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>What type of advertisements are proposed and how many there will be.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>advertisement-proposal-type</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Advertisement proposal type[]</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>advertisement-other-description</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>Advertisement other description</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Details required if other advertisement type is selected</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2071,21 +2055,13 @@
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2093,23 +2069,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2143,21 +2127,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2167,7 +2159,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2201,24 +2193,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2228,8 +2220,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2237,63 +2237,47 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2311,21 +2295,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2335,7 +2327,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2369,19 +2361,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2391,7 +2383,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2425,19 +2417,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2481,19 +2473,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2537,19 +2529,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2559,7 +2551,7 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2583,29 +2575,21 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2639,12 +2623,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr"/>
@@ -2653,12 +2637,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2668,64 +2652,56 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2733,23 +2709,31 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2783,21 +2767,29 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2807,7 +2799,7 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2841,24 +2833,24 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2868,72 +2860,64 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2951,21 +2935,29 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -2975,7 +2967,7 @@
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3009,19 +3001,19 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3031,7 +3023,7 @@
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3065,19 +3057,19 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3121,19 +3113,19 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3177,19 +3169,19 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3199,53 +3191,45 @@
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="2" t="n"/>
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3255,34 +3239,34 @@
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>community-consultation</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>have-consulted</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3293,12 +3277,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3308,16 +3292,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>community-consultation</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>What community consultation activities have taken place as part of the application</t>
@@ -3325,12 +3301,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>have-consulted</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3341,36 +3317,44 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3381,31 +3365,23 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3413,12 +3389,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3429,17 +3405,17 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3429,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3469,7 +3445,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3484,21 +3460,29 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Interest in land</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>interest-in-land</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>applicant-owns-land</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Applicant owns land</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3509,31 +3493,23 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>True or False indicating whether the applicant owns the land where the advertisement will be displayed</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Interest in land</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>interest-in-land</t>
-        </is>
-      </c>
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
@@ -3541,12 +3517,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>applicant-owns-land</t>
+          <t>permission-obtained</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Applicant owns land</t>
+          <t>Permission obtained</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3557,7 +3533,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the applicant owns the land where the advertisement will be displayed</t>
+          <t>True or False indicating whether permission of the owner for the display of an advertisement has been obtained</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3567,7 +3543,7 @@
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3557,12 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>permission-obtained</t>
+          <t>permission-not-obtained-details</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Permission obtained</t>
+          <t>Permission not obtained details</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3597,12 +3573,12 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether permission of the owner for the display of an advertisement has been obtained</t>
+          <t>Details explaining why permission from the land owner has not been obtained for the advertisement display</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3612,21 +3588,29 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant owns or has permission to use the land where the proposed advertisement will be placed</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>permission-not-obtained-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Permission not obtained details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3637,7 +3621,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Details explaining why permission from the land owner has not been obtained for the advertisement display</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3647,21 +3631,13 @@
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3669,12 +3645,12 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3685,12 +3661,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3709,12 +3685,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3725,12 +3701,12 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3740,21 +3716,29 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3765,12 +3749,12 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3780,16 +3764,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3797,12 +3773,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3813,17 +3789,17 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3837,12 +3813,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3853,7 +3829,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3877,12 +3853,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3893,7 +3869,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3917,12 +3893,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -3933,7 +3909,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3948,37 +3924,53 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Proposed advert details</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>proposed-advert-details</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Details of the proposed advertisements such as their size and how they are made</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>advertisements</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
+          <t>Advertisements[]</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>height-from-ground</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Height from ground</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Height, in metres, from ground to the base of the advertisement</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -3988,16 +3980,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Proposed advert details</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>proposed-advert-details</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Details of the proposed advertisements such as their size and how they are made</t>
@@ -4015,12 +3999,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>height-from-ground</t>
+          <t>height</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Height from ground</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4029,7 +4013,7 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Height, in metres, from ground to the base of the advertisement</t>
+          <t>Height, in metres, of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4063,12 +4047,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>width</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4077,7 +4061,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Height, in metres, of dimensions of advertisement</t>
+          <t>Width of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4111,12 +4095,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Width</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4125,7 +4109,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Width of dimensions of advertisement</t>
+          <t>Depth, in metres, of dimensions of advertisement</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4159,12 +4143,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>depth</t>
+          <t>symbol-height-max</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>Symbol height max</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4173,7 +4157,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Depth, in metres, of dimensions of advertisement</t>
+          <t>Maximum height, in metres, of any individual letters or symbols</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4207,12 +4191,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>symbol-height-max</t>
+          <t>colour</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Symbol height max</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4221,12 +4205,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Maximum height, in metres, of any individual letters or symbols</t>
+          <t>Colour of proposed sign</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4255,12 +4239,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>colour</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4269,7 +4253,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Colour of proposed sign</t>
+          <t>Materials of proposed sign</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4303,12 +4287,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>max-projection</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Max projection</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4317,12 +4301,12 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Materials of proposed sign</t>
+          <t>Maximum projection, in metres, of the advertisement from the face of the building</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4351,12 +4335,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>max-projection</t>
+          <t>illuminated</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Max projection</t>
+          <t>Illuminated</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4365,12 +4349,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Maximum projection, in metres, of the advertisement from the face of the building</t>
+          <t>Will the sign(s) be illuminated?</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4399,12 +4383,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>illuminated</t>
+          <t>illumination-method</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Illuminated</t>
+          <t>Illumination method</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -4413,12 +4397,12 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Will the sign(s) be illuminated?</t>
+          <t>Method of illumination for the advertisement</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
@@ -4447,12 +4431,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>illumination-method</t>
+          <t>illuminance-level</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Illumination method</t>
+          <t>Illuminance level</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
@@ -4461,12 +4445,12 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Method of illumination for the advertisement</t>
+          <t>Level of illuminance for the advertisement</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
@@ -4495,12 +4479,12 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>illuminance-level</t>
+          <t>illumination-type</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Illuminance level</t>
+          <t>Illumination type</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -4509,12 +4493,12 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Level of illuminance for the advertisement</t>
+          <t>Type of illumination (static or intermittent)</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4524,31 +4508,39 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Details of the proposed advertisements such as their size and how they are made</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>advertisements</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Advertisements[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>illumination-type</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Illumination type</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -4557,12 +4549,12 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Type of illumination (static or intermittent)</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4572,16 +4564,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4599,12 +4583,12 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -4613,12 +4597,12 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4647,12 +4631,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4661,7 +4645,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4695,12 +4679,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4709,12 +4693,12 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4743,12 +4727,12 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -4757,7 +4741,7 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4791,12 +4775,12 @@
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr"/>
@@ -4805,7 +4789,7 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4839,12 +4823,12 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr"/>
@@ -4853,7 +4837,7 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
@@ -4887,12 +4871,12 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -4901,12 +4885,12 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
@@ -4935,12 +4919,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -4949,7 +4933,7 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
@@ -4964,64 +4948,56 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
       <c r="H91" s="2" t="inlineStr"/>
       <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5029,12 +5005,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5045,12 +5021,12 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
@@ -5069,12 +5045,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5085,17 +5061,17 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5109,23 +5085,31 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5135,7 +5119,7 @@
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5159,12 +5143,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5173,7 +5157,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5207,12 +5191,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5221,7 +5205,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5230,54 +5214,6 @@
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
-      <c r="J97" s="2" t="inlineStr"/>
-      <c r="K97" s="2" t="inlineStr"/>
-      <c r="L97" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M97" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N97" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -5285,40 +5221,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B54"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B71:B82"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A71:A82"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A53"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B70:B81"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B53"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,83 +1441,99 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Advertisement location</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>advert-location</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Where the advertisement being applied to be built will be located</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>is-advert-in-place</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Is advert in place</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Whether the advertisement is already in place</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Advertisement location</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>advert-location</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Where the advertisement being applied to be built will be located</t>
@@ -1525,12 +1541,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>advert-placed-date</t>
+          <t>is-advert-in-place</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Advert placed date</t>
+          <t>Is advert in place</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1541,17 +1557,17 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Date when the advertisement was placed (YYYY-MM-DD format)</t>
+          <t>Whether the advertisement is already in place</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1565,12 +1581,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>is-replacement-advert</t>
+          <t>advert-placed-date</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Is replacement advert</t>
+          <t>Advert placed date</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1581,17 +1597,17 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Whether this is a replacement advertisement</t>
+          <t>Date when the advertisement was placed (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1605,36 +1621,28 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>document-reference</t>
+          <t>is-replacement-advert</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Is replacement advert</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether this is a replacement advertisement</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1663,12 +1671,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1677,7 +1685,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -4402,7 +4410,7 @@
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
@@ -5228,23 +5236,23 @@
     <mergeCell ref="B91:B96"/>
     <mergeCell ref="B65:B69"/>
     <mergeCell ref="B82:B90"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B2:B18"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="A70:A81"/>
-    <mergeCell ref="A2:A18"/>
     <mergeCell ref="A91:A96"/>
     <mergeCell ref="A82:A90"/>
-    <mergeCell ref="B19:B24"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B70:B81"/>
@@ -5253,7 +5261,7 @@
     <mergeCell ref="B53"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B2:B19"/>
     <mergeCell ref="A56:A58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
+++ b/generated/spreadsheet/verbose/advertising-advertising-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
